--- a/results/accel-glmm-results/habitat-season/np/glmm_multi_comp_hab_within_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_multi_comp_hab_within_hab_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.940898588537682</v>
+        <v>0.940898588488629</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00795311510607299</v>
+        <v>0.00795311510757123</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.20717119737989</v>
+        <v>-7.20717120181426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000000000108539713526457</v>
+        <v>0.00000000006169625620665</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.941403000615671</v>
+        <v>0.941403000834117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0081939900935974</v>
+        <v>0.008193990099842</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.93748014740753</v>
+        <v>-6.93748011707106</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000000000758395248685149</v>
+        <v>0.000000000427096363311125</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.05770963523696</v>
+        <v>1.05770963500325</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0060268747387022</v>
+        <v>0.00602687473850739</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>9.84651242502337</v>
+        <v>9.84651238438885</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0000000000000000000134831131815276</v>
+        <v>0.00000000000000000000958011060608306</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.00053609611507</v>
+        <v>1.0005360963994</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0100140120327134</v>
+        <v>0.0100140120399289</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0535489459336812</v>
+        <v>0.0535489743034884</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.889562274174515</v>
+        <v>0.88956227432469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00664628418231361</v>
+        <v>0.00664628418458008</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-15.6631437832733</v>
+        <v>-15.6631437579809</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000513387270247423</v>
+        <v>0.0000000000000000000000000000000000000000000000000000475558923703948</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.890039165053812</v>
+        <v>0.890039165456996</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00690832936531419</v>
+        <v>0.0069083293721588</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-15.0080416150981</v>
+        <v>-15.008041548665</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000123575609521904</v>
+        <v>0.00000000000000000000000000000000000000000000000111868558541848</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.861783738930098</v>
+        <v>0.861783738290253</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0613691972569902</v>
+        <v>0.0613691972343866</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.08885128157265</v>
+        <v>-2.08885129121727</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.811483305787107</v>
+        <v>0.811483305517316</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0611808415056459</v>
+        <v>0.0611808415087542</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.77067022640907</v>
+        <v>-2.77067022975688</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.335646302652555</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.12411446450668</v>
+        <v>1.12411446405184</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0825815728641682</v>
+        <v>0.0825815728624256</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.59256384460864</v>
+        <v>1.59256383849008</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9416321858133</v>
+        <v>0.941632186199368</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0364465984469633</v>
+        <v>0.0364465984492908</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.5537875146892</v>
+        <v>-1.55378750463431</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.76663344004589</v>
+        <v>0.766633439786888</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0276733949184826</v>
+        <v>0.0276733948959903</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-7.36195029478189</v>
+        <v>-7.36195030763757</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0000000000344360680609313</v>
+        <v>0.0000000000197554266161273</v>
       </c>
     </row>
     <row r="13">
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.721886721867981</v>
+        <v>0.721886721920069</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0315983935706818</v>
+        <v>0.0315983935674024</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.44511051682453</v>
+        <v>-7.44511051648596</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0000000000184040261278435</v>
+        <v>0.0000000000107518258180514</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.894366184747408</v>
+        <v>0.89436618450088</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0125689572384593</v>
+        <v>0.0125689572337171</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-7.94393883259881</v>
+        <v>-7.94393885302028</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000000000000372134387357992</v>
+        <v>0.000000000000229156400783883</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.866384710389258</v>
+        <v>0.866384710569844</v>
       </c>
       <c r="H15" t="n">
-        <v>0.011392927238657</v>
+        <v>0.0113929272449838</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-10.90696804943</v>
+        <v>-10.9069680297957</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000000000000000000000000202839707266687</v>
+        <v>0.0000000000000000000000001537311797538</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.02190853587217</v>
+        <v>1.02190853558523</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0111525100435916</v>
+        <v>0.0111525100407187</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.98581252860313</v>
+        <v>1.98581250282845</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.968713626660592</v>
+        <v>0.968713627129528</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0141258031426651</v>
+        <v>0.0141258031502166</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.1798243279788</v>
+        <v>-2.1798242946716</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.875192009218408</v>
+        <v>0.875192009222908</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0109016851716025</v>
+        <v>0.0109016851684439</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.7023433243766</v>
+        <v>-10.7023433271197</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00000000000000000000000188549083461606</v>
+        <v>0.00000000000000000000000140915626625291</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.847810425274334</v>
+        <v>0.847810425689102</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00966416212179411</v>
+        <v>0.00966416212913176</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-14.4836141126293</v>
+        <v>-14.4836140658</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0000000000000000000000000000000000000000000029220738340449</v>
+        <v>0.00000000000000000000000000000000000000000000259910954989532</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.24467707215484</v>
+        <v>1.24467707313704</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0621403584632205</v>
+        <v>0.0621403584355075</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.38410866235929</v>
+        <v>4.38410868358035</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00221277104823512</v>
+        <v>0.00108309309172627</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.166945198392</v>
+        <v>1.16694519934956</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0587000851343962</v>
+        <v>0.058700085111511</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.06922826793204</v>
+        <v>3.06922828796001</v>
       </c>
       <c r="L21" t="n">
-        <v>0.407763829425784</v>
+        <v>0.135205892271178</v>
       </c>
     </row>
     <row r="22">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.09688626987566</v>
+        <v>1.09688627093857</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05542546660361</v>
+        <v>0.0554254665918755</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1.83011735983112</v>
+        <v>1.83011738116922</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.937548561388486</v>
+        <v>0.937548561417971</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0140769440162176</v>
+        <v>0.0140769440200652</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.2949261523553</v>
+        <v>-4.29492614922187</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00332027843688808</v>
+        <v>0.00160771379214783</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.13473666900391</v>
+        <v>1.13473666879978</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0189300088732434</v>
+        <v>0.0189300088769973</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>7.57693316583386</v>
+        <v>7.57693315218462</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00000000000672255965139137</v>
+        <v>0.00000000000406891811163629</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.06387073157938</v>
+        <v>1.06387073142145</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0187667427916486</v>
+        <v>0.0187667427962466</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.50984594848802</v>
+        <v>3.50984593869174</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0851896121041493</v>
+        <v>0.0331791133050092</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.819703656692971</v>
+        <v>0.819703656585409</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00996817728596837</v>
+        <v>0.009968177284374</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-16.3487511530992</v>
+        <v>-16.3487511643593</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000843574016829967</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000790295511847603</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.946200520795464</v>
+        <v>0.946200520927933</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00817396945159864</v>
+        <v>0.00817396945402855</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.40149358408539</v>
+        <v>-6.40149356687245</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0000000292342132782095</v>
+        <v>0.000000016001886967179</v>
       </c>
     </row>
     <row r="28">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.09094579713572</v>
+        <v>1.09094579671701</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00969927763153914</v>
+        <v>0.00969927762684264</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>9.79056446071756</v>
+        <v>9.79056441853134</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0000000000000000000234847426845525</v>
+        <v>0.0000000000000000000165629306989378</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.15432023886881</v>
+        <v>1.15432023918188</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0117710586055754</v>
+        <v>0.0117710586081306</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>14.0733631501088</v>
+        <v>14.0733631774679</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0000000000000000000000000000000000000000010520711940257</v>
+        <v>0.000000000000000000000000000000000000000000924714849553374</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.751369737016364</v>
+        <v>0.751369737206149</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00814373442899354</v>
+        <v>0.00814373442945398</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-26.3742166389649</v>
+        <v>-26.374216620831</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000514543921451902</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000511836040694391</v>
       </c>
     </row>
     <row r="31">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.867321294311522</v>
+        <v>0.86732129476583</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00587850913380606</v>
+        <v>0.00587850913601921</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>-21.0018443958505</v>
+        <v>-21.0018443216617</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000119867623607465</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000117344277936154</v>
       </c>
     </row>
   </sheetData>
